--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.582978925243333</v>
+        <v>2.562128560411576</v>
       </c>
       <c r="C2">
-        <v>2.835776561590235</v>
+        <v>2.828655049581922</v>
       </c>
       <c r="D2">
-        <v>11.10533246283411</v>
+        <v>10.56472949907906</v>
       </c>
       <c r="E2">
-        <v>2.455502252780831</v>
+        <v>2.437664035705469</v>
       </c>
       <c r="F2">
-        <v>2.578162715035433</v>
+        <v>2.558139091228547</v>
       </c>
       <c r="G2">
-        <v>3.689324010801623</v>
+        <v>3.657830235493572</v>
       </c>
       <c r="H2">
-        <v>2.454415390512692</v>
+        <v>2.436801249702838</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.597949215682552</v>
+        <v>2.576937016845974</v>
       </c>
       <c r="C3">
-        <v>2.892284530081745</v>
+        <v>2.883834815612763</v>
       </c>
       <c r="D3">
-        <v>8.708039662539836</v>
+        <v>8.374954051276625</v>
       </c>
       <c r="E3">
-        <v>2.462907254451062</v>
+        <v>2.444871584426221</v>
       </c>
       <c r="F3">
-        <v>2.591142593621775</v>
+        <v>2.571058240846794</v>
       </c>
       <c r="G3">
-        <v>3.584835325838224</v>
+        <v>3.555220259392242</v>
       </c>
       <c r="H3">
-        <v>2.460568648052069</v>
+        <v>2.442838613609139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.544785249097303</v>
+        <v>2.526949918108024</v>
       </c>
       <c r="C4">
-        <v>3.027151115066018</v>
+        <v>3.01732006345383</v>
       </c>
       <c r="D4">
-        <v>9.936666237737363</v>
+        <v>9.361953554425824</v>
       </c>
       <c r="E4">
-        <v>2.432045804322756</v>
+        <v>2.41651902216063</v>
       </c>
       <c r="F4">
-        <v>2.541122958614084</v>
+        <v>2.524033221911411</v>
       </c>
       <c r="G4">
-        <v>3.643882989365608</v>
+        <v>3.607583539008169</v>
       </c>
       <c r="H4">
-        <v>2.431528602827934</v>
+        <v>2.416199608207933</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.590664483198036</v>
+        <v>2.571187619835253</v>
       </c>
       <c r="C5">
-        <v>3.388014036056305</v>
+        <v>3.380719459040112</v>
       </c>
       <c r="D5">
-        <v>5.111534887500897</v>
+        <v>4.940140009134441</v>
       </c>
       <c r="E5">
-        <v>2.463014875358469</v>
+        <v>2.446396964240126</v>
       </c>
       <c r="F5">
-        <v>2.583364599797534</v>
+        <v>2.564825141152768</v>
       </c>
       <c r="G5">
-        <v>3.5621188094138</v>
+        <v>3.534977467695958</v>
       </c>
       <c r="H5">
-        <v>2.460344613082702</v>
+        <v>2.444040844258239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.600397922209863</v>
+        <v>2.580933269305367</v>
       </c>
       <c r="C6">
-        <v>3.370458359472038</v>
+        <v>3.364883251118721</v>
       </c>
       <c r="D6">
-        <v>1.43262871696662</v>
+        <v>1.426955281458697</v>
       </c>
       <c r="E6">
-        <v>2.470248056126295</v>
+        <v>2.453820867654344</v>
       </c>
       <c r="F6">
-        <v>2.593164756629139</v>
+        <v>2.574585052914157</v>
       </c>
       <c r="G6">
-        <v>2.986817473806805</v>
+        <v>2.968124494335742</v>
       </c>
       <c r="H6">
-        <v>2.467534082534359</v>
+        <v>2.451383197835503</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.57505219918824</v>
+        <v>2.555471140536096</v>
       </c>
       <c r="C7">
-        <v>3.663586248703815</v>
+        <v>3.655791957161804</v>
       </c>
       <c r="D7">
-        <v>1.967538081733128</v>
+        <v>1.909465123111566</v>
       </c>
       <c r="E7">
-        <v>2.462792871484835</v>
+        <v>2.445607710036875</v>
       </c>
       <c r="F7">
-        <v>2.568060346406003</v>
+        <v>2.549393159961533</v>
       </c>
       <c r="G7">
-        <v>3.255321134381763</v>
+        <v>3.230341905891171</v>
       </c>
       <c r="H7">
-        <v>2.460303549337107</v>
+        <v>2.44341887967167</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.58802937711476</v>
+        <v>2.568469745368881</v>
       </c>
       <c r="C8">
-        <v>1.626091624037675</v>
+        <v>1.61754885472335</v>
       </c>
       <c r="D8">
-        <v>3.179642682584997</v>
+        <v>3.162607168728365</v>
       </c>
       <c r="E8">
-        <v>2.444401318218998</v>
+        <v>2.428272206215448</v>
       </c>
       <c r="F8">
-        <v>2.580845386146394</v>
+        <v>2.562226646976647</v>
       </c>
       <c r="G8">
-        <v>2.065370000109765</v>
+        <v>2.048578856136538</v>
       </c>
       <c r="H8">
-        <v>2.44194784477313</v>
+        <v>2.426137845639802</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.593465168946538</v>
+        <v>2.57466267579235</v>
       </c>
       <c r="C9">
-        <v>3.042592146016552</v>
+        <v>3.03186021144269</v>
       </c>
       <c r="D9">
-        <v>2.435851756823798</v>
+        <v>2.414254612245162</v>
       </c>
       <c r="E9">
-        <v>2.454930654785713</v>
+        <v>2.438785451754285</v>
       </c>
       <c r="F9">
-        <v>2.587198822740189</v>
+        <v>2.569237339612119</v>
       </c>
       <c r="G9">
-        <v>2.8583919904523</v>
+        <v>2.83681288685493</v>
       </c>
       <c r="H9">
-        <v>2.453200548605727</v>
+        <v>2.437293282939875</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.270433746283037</v>
+        <v>2.253757000171591</v>
       </c>
       <c r="C10">
-        <v>3.695542325719942</v>
+        <v>3.678504460331955</v>
       </c>
       <c r="D10">
-        <v>4.775566882404127</v>
+        <v>4.478426308014347</v>
       </c>
       <c r="E10">
-        <v>2.367848190844247</v>
+        <v>2.350206967072472</v>
       </c>
       <c r="F10">
-        <v>2.2759905999112</v>
+        <v>2.259907216303427</v>
       </c>
       <c r="G10">
-        <v>3.539853526481119</v>
+        <v>3.499139607109537</v>
       </c>
       <c r="H10">
-        <v>2.371611558717063</v>
+        <v>2.354271173204167</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.202548788556571</v>
+        <v>2.186605345224173</v>
       </c>
       <c r="C11">
-        <v>3.794002622841346</v>
+        <v>3.781325438004655</v>
       </c>
       <c r="D11">
-        <v>3.8191598018164</v>
+        <v>3.624572709325329</v>
       </c>
       <c r="E11">
-        <v>2.373167450654883</v>
+        <v>2.355463786409341</v>
       </c>
       <c r="F11">
-        <v>2.209429365814242</v>
+        <v>2.194203204459443</v>
       </c>
       <c r="G11">
-        <v>3.512396199560087</v>
+        <v>3.48083342614943</v>
       </c>
       <c r="H11">
-        <v>2.375365083439768</v>
+        <v>2.358096505327883</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.873219860562857</v>
+        <v>1.858851259405834</v>
       </c>
       <c r="C12">
-        <v>3.603798705546136</v>
+        <v>3.573545316688634</v>
       </c>
       <c r="D12">
-        <v>0.8702727138205879</v>
+        <v>0.7992521905295669</v>
       </c>
       <c r="E12">
-        <v>2.255999051510582</v>
+        <v>2.232917583795264</v>
       </c>
       <c r="F12">
-        <v>1.879694048360705</v>
+        <v>1.865783552065658</v>
       </c>
       <c r="G12">
-        <v>3.060133675128444</v>
+        <v>3.018377456737963</v>
       </c>
       <c r="H12">
-        <v>2.256228505437855</v>
+        <v>2.233541039399723</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.249356317698947</v>
+        <v>2.23224328459987</v>
       </c>
       <c r="C13">
-        <v>3.678226731956694</v>
+        <v>3.657686037493022</v>
       </c>
       <c r="D13">
-        <v>3.337475049440666</v>
+        <v>3.085090764804561</v>
       </c>
       <c r="E13">
-        <v>2.358184694559362</v>
+        <v>2.338634367234772</v>
       </c>
       <c r="F13">
-        <v>2.254469502846911</v>
+        <v>2.237924815214063</v>
       </c>
       <c r="G13">
-        <v>3.382836375338402</v>
+        <v>3.337211194759394</v>
       </c>
       <c r="H13">
-        <v>2.361185315973835</v>
+        <v>2.342009859240121</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.562128560411576</v>
+        <v>2.562128560411577</v>
       </c>
       <c r="C2">
-        <v>2.828655049581922</v>
+        <v>2.828655049581926</v>
       </c>
       <c r="D2">
-        <v>10.56472949907906</v>
+        <v>10.56472949907907</v>
       </c>
       <c r="E2">
-        <v>2.437664035705469</v>
+        <v>2.43766403570547</v>
       </c>
       <c r="F2">
-        <v>2.558139091228547</v>
+        <v>2.558139091228548</v>
       </c>
       <c r="G2">
-        <v>3.657830235493572</v>
+        <v>3.657830235493575</v>
       </c>
       <c r="H2">
-        <v>2.436801249702838</v>
+        <v>2.436801249702837</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -429,10 +429,10 @@
         <v>2.576937016845974</v>
       </c>
       <c r="C3">
-        <v>2.883834815612763</v>
+        <v>2.883834815612765</v>
       </c>
       <c r="D3">
-        <v>8.374954051276625</v>
+        <v>8.374954051276632</v>
       </c>
       <c r="E3">
         <v>2.444871584426221</v>
@@ -441,7 +441,7 @@
         <v>2.571058240846794</v>
       </c>
       <c r="G3">
-        <v>3.555220259392242</v>
+        <v>3.555220259392244</v>
       </c>
       <c r="H3">
         <v>2.442838613609139</v>
@@ -455,19 +455,19 @@
         <v>2.526949918108024</v>
       </c>
       <c r="C4">
-        <v>3.01732006345383</v>
+        <v>3.017320063453831</v>
       </c>
       <c r="D4">
-        <v>9.361953554425824</v>
+        <v>9.361953554425826</v>
       </c>
       <c r="E4">
         <v>2.41651902216063</v>
       </c>
       <c r="F4">
-        <v>2.524033221911411</v>
+        <v>2.52403322191141</v>
       </c>
       <c r="G4">
-        <v>3.607583539008169</v>
+        <v>3.607583539008171</v>
       </c>
       <c r="H4">
         <v>2.416199608207933</v>
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.571187619835253</v>
+        <v>2.571187619835254</v>
       </c>
       <c r="C5">
-        <v>3.380719459040112</v>
+        <v>3.380719459040115</v>
       </c>
       <c r="D5">
-        <v>4.940140009134441</v>
+        <v>4.940140009134447</v>
       </c>
       <c r="E5">
-        <v>2.446396964240126</v>
+        <v>2.446396964240129</v>
       </c>
       <c r="F5">
-        <v>2.564825141152768</v>
+        <v>2.56482514115277</v>
       </c>
       <c r="G5">
-        <v>3.534977467695958</v>
+        <v>3.534977467695962</v>
       </c>
       <c r="H5">
-        <v>2.444040844258239</v>
+        <v>2.44404084425824</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.580933269305367</v>
+        <v>2.58093326930537</v>
       </c>
       <c r="C6">
-        <v>3.364883251118721</v>
+        <v>3.364883251118726</v>
       </c>
       <c r="D6">
-        <v>1.426955281458697</v>
+        <v>1.426955281458698</v>
       </c>
       <c r="E6">
-        <v>2.453820867654344</v>
+        <v>2.453820867654346</v>
       </c>
       <c r="F6">
-        <v>2.574585052914157</v>
+        <v>2.574585052914159</v>
       </c>
       <c r="G6">
-        <v>2.968124494335742</v>
+        <v>2.968124494335747</v>
       </c>
       <c r="H6">
-        <v>2.451383197835503</v>
+        <v>2.451383197835506</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.555471140536096</v>
+        <v>2.555471140536097</v>
       </c>
       <c r="C7">
-        <v>3.655791957161804</v>
+        <v>3.655791957161806</v>
       </c>
       <c r="D7">
         <v>1.909465123111566</v>
       </c>
       <c r="E7">
-        <v>2.445607710036875</v>
+        <v>2.445607710036876</v>
       </c>
       <c r="F7">
         <v>2.549393159961533</v>
       </c>
       <c r="G7">
-        <v>3.230341905891171</v>
+        <v>3.230341905891172</v>
       </c>
       <c r="H7">
-        <v>2.44341887967167</v>
+        <v>2.443418879671671</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.568469745368881</v>
+        <v>2.568469745368879</v>
       </c>
       <c r="C8">
-        <v>1.61754885472335</v>
+        <v>1.617548854723349</v>
       </c>
       <c r="D8">
-        <v>3.162607168728365</v>
+        <v>3.162607168728361</v>
       </c>
       <c r="E8">
-        <v>2.428272206215448</v>
+        <v>2.428272206215447</v>
       </c>
       <c r="F8">
-        <v>2.562226646976647</v>
+        <v>2.562226646976645</v>
       </c>
       <c r="G8">
-        <v>2.048578856136538</v>
+        <v>2.048578856136536</v>
       </c>
       <c r="H8">
-        <v>2.426137845639802</v>
+        <v>2.4261378456398</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.57466267579235</v>
+        <v>2.574662675792349</v>
       </c>
       <c r="C9">
-        <v>3.03186021144269</v>
+        <v>3.031860211442694</v>
       </c>
       <c r="D9">
-        <v>2.414254612245162</v>
+        <v>2.41425461224516</v>
       </c>
       <c r="E9">
         <v>2.438785451754285</v>
@@ -597,7 +597,7 @@
         <v>2.569237339612119</v>
       </c>
       <c r="G9">
-        <v>2.83681288685493</v>
+        <v>2.836812886854931</v>
       </c>
       <c r="H9">
         <v>2.437293282939875</v>
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.253757000171591</v>
+        <v>2.253757000171593</v>
       </c>
       <c r="C10">
-        <v>3.678504460331955</v>
+        <v>3.67850446033196</v>
       </c>
       <c r="D10">
-        <v>4.478426308014347</v>
+        <v>4.478426308014354</v>
       </c>
       <c r="E10">
-        <v>2.350206967072472</v>
+        <v>2.350206967072475</v>
       </c>
       <c r="F10">
-        <v>2.259907216303427</v>
+        <v>2.25990721630343</v>
       </c>
       <c r="G10">
-        <v>3.499139607109537</v>
+        <v>3.499139607109543</v>
       </c>
       <c r="H10">
-        <v>2.354271173204167</v>
+        <v>2.354271173204168</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.186605345224173</v>
+        <v>2.186605345224175</v>
       </c>
       <c r="C11">
-        <v>3.781325438004655</v>
+        <v>3.781325438004659</v>
       </c>
       <c r="D11">
-        <v>3.624572709325329</v>
+        <v>3.624572709325331</v>
       </c>
       <c r="E11">
-        <v>2.355463786409341</v>
+        <v>2.355463786409342</v>
       </c>
       <c r="F11">
-        <v>2.194203204459443</v>
+        <v>2.194203204459444</v>
       </c>
       <c r="G11">
-        <v>3.48083342614943</v>
+        <v>3.480833426149434</v>
       </c>
       <c r="H11">
-        <v>2.358096505327883</v>
+        <v>2.358096505327884</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,22 +660,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.858851259405834</v>
+        <v>1.858851259405835</v>
       </c>
       <c r="C12">
-        <v>3.573545316688634</v>
+        <v>3.573545316688636</v>
       </c>
       <c r="D12">
-        <v>0.7992521905295669</v>
+        <v>0.7992521905295688</v>
       </c>
       <c r="E12">
-        <v>2.232917583795264</v>
+        <v>2.232917583795265</v>
       </c>
       <c r="F12">
         <v>1.865783552065658</v>
       </c>
       <c r="G12">
-        <v>3.018377456737963</v>
+        <v>3.018377456737966</v>
       </c>
       <c r="H12">
         <v>2.233541039399723</v>
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.23224328459987</v>
+        <v>2.232243284599871</v>
       </c>
       <c r="C13">
-        <v>3.657686037493022</v>
+        <v>3.657686037493024</v>
       </c>
       <c r="D13">
-        <v>3.085090764804561</v>
+        <v>3.085090764804559</v>
       </c>
       <c r="E13">
-        <v>2.338634367234772</v>
+        <v>2.338634367234773</v>
       </c>
       <c r="F13">
         <v>2.237924815214063</v>
       </c>
       <c r="G13">
-        <v>3.337211194759394</v>
+        <v>3.337211194759396</v>
       </c>
       <c r="H13">
-        <v>2.342009859240121</v>
+        <v>2.342009859240122</v>
       </c>
     </row>
   </sheetData>
